--- a/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1254,7 +1254,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2267023651233538</v>
+        <v>0.227899963187818</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.314135989641592</v>
+        <v>0.315910389343354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2728537538936514</v>
+        <v>0.2750056480102189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3170202553220113</v>
+        <v>0.3185997900263057</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3096931683457309</v>
+        <v>0.3081256865285373</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3982418902266568</v>
+        <v>0.3982916442701557</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3517197564004335</v>
+        <v>0.3533357565070613</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4598045769107948</v>
+        <v>0.4600049713640998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2835255317091958</v>
+        <v>0.2793372556316759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3718529033917234</v>
+        <v>0.3717912503340962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3289071999078683</v>
+        <v>0.3272031331596653</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4093197251014214</v>
+        <v>0.409489867895595</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2799303756745994</v>
+        <v>0.2838150844595014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3791200620003385</v>
+        <v>0.3808861526104578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.335393004815477</v>
+        <v>0.3420246852678713</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3912795232403643</v>
+        <v>0.3922138888683694</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3598495357053044</v>
+        <v>0.3619735337115633</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4549349789053677</v>
+        <v>0.4517888630814211</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4196731841032236</v>
+        <v>0.4180649316192153</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5134381124929271</v>
+        <v>0.5143919750734811</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3199497515862874</v>
+        <v>0.3174957807252388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4119256388699035</v>
+        <v>0.4141401608784447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3752006328873511</v>
+        <v>0.3734614558606558</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4549798662334162</v>
+        <v>0.4532449841443257</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05287848030155774</v>
+        <v>0.05255524792236226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08021712272963134</v>
+        <v>0.08087328048639041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09283893623582612</v>
+        <v>0.09316568297995569</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1374052520826932</v>
+        <v>0.1377856860849673</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04931021006289803</v>
+        <v>0.04896966543547089</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07086699544976811</v>
+        <v>0.06933468594068702</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09285861329140063</v>
+        <v>0.09286489173539181</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1210965045293619</v>
+        <v>0.120262420104335</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05374937069378571</v>
+        <v>0.05493495419986866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07994008174925807</v>
+        <v>0.07934395770745953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09691133727656823</v>
+        <v>0.0966167916205324</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1334246573542197</v>
+        <v>0.133363031585947</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07575893316428749</v>
+        <v>0.07595410364417124</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1081806218152421</v>
+        <v>0.1086770929085459</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1195177731336106</v>
+        <v>0.1198115171799689</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1662688504132901</v>
+        <v>0.1665091358857194</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07260533066882857</v>
+        <v>0.07151328646525393</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09746079136581373</v>
+        <v>0.09670613882421467</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1223331144428429</v>
+        <v>0.1218586993901599</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1448456799225072</v>
+        <v>0.1448079704991659</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07064361700041738</v>
+        <v>0.07122215881870718</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0993140911868062</v>
+        <v>0.0988050394602224</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1170221810809539</v>
+        <v>0.1168533184271426</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1513275270792941</v>
+        <v>0.1519864943473008</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.09381675272462148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1688584685186115</v>
+        <v>0.1688584685186114</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05884654839152573</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05783212575681848</v>
+        <v>0.05700869706456173</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06805756159345892</v>
+        <v>0.06910981689404189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07006316480714</v>
+        <v>0.0687999480467156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1437256216704711</v>
+        <v>0.1437138099253278</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04072487843941541</v>
+        <v>0.04090033848175605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04058402171643652</v>
+        <v>0.04434860393000951</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0349060515231167</v>
+        <v>0.03420551018888413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09093206939508706</v>
+        <v>0.08950862092862309</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05356033461306484</v>
+        <v>0.05380175278403045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06299197712386136</v>
+        <v>0.06278937148560736</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05779371542148071</v>
+        <v>0.05874082928385821</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1217760632800442</v>
+        <v>0.1235707744636143</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1048002356445991</v>
+        <v>0.1063757047486281</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1257054296192437</v>
+        <v>0.1301894177311576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1248971316859353</v>
+        <v>0.1234133026585438</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1976538486203926</v>
+        <v>0.1954975749829642</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08359819184382034</v>
+        <v>0.08211402761526823</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09677228239604357</v>
+        <v>0.09863554176040702</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08225219819934032</v>
+        <v>0.08125000975563258</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1261390981444807</v>
+        <v>0.125214356014139</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0862528673541665</v>
+        <v>0.0846666469779243</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1027034584079711</v>
+        <v>0.1033326523713764</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09252663307683048</v>
+        <v>0.09252077493067627</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.154395111395343</v>
+        <v>0.1565871948357012</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1533534646555079</v>
+        <v>0.1516256553402353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1352807605805444</v>
+        <v>0.1359242008710569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1766332380049613</v>
+        <v>0.175074930953469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1948031889985862</v>
+        <v>0.196089282776492</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1629183328742281</v>
+        <v>0.164603385497204</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1949934914415642</v>
+        <v>0.1953098117652744</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1784867357794247</v>
+        <v>0.1789071404309277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1540449009586903</v>
+        <v>0.1547124940303579</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1883926306945463</v>
+        <v>0.1892837424078118</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1804058717891171</v>
+        <v>0.1788628117439575</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1608890287168451</v>
+        <v>0.1618437155957723</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2009566712443104</v>
+        <v>0.2012750678246268</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2233161450131594</v>
+        <v>0.2242412023266747</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1906474953446864</v>
+        <v>0.1910268200855298</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2155413211258486</v>
+        <v>0.2157253151493718</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1974699050312736</v>
+        <v>0.1980526079840172</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1728579658032009</v>
+        <v>0.1725071582902708</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2054316577805045</v>
+        <v>0.2049980971419725</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>233894</v>
+        <v>235130</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>306170</v>
+        <v>307900</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205826</v>
+        <v>207450</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>183093</v>
+        <v>184005</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>407282</v>
+        <v>405220</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>531482</v>
+        <v>531548</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>349842</v>
+        <v>351449</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>377093</v>
+        <v>377257</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>665388</v>
+        <v>655558</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>858688</v>
+        <v>858546</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>575261</v>
+        <v>572281</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>572089</v>
+        <v>572327</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>288811</v>
+        <v>292819</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>369507</v>
+        <v>371228</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>253003</v>
+        <v>258005</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>225980</v>
+        <v>226520</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>473243</v>
+        <v>476036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>607143</v>
+        <v>602944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>417432</v>
+        <v>415832</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>421079</v>
+        <v>421861</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>750869</v>
+        <v>745110</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>951224</v>
+        <v>956338</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>656229</v>
+        <v>653187</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>635906</v>
+        <v>633481</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>89491</v>
+        <v>88944</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>157227</v>
+        <v>158513</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>192769</v>
+        <v>193448</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>306365</v>
+        <v>307213</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>78288</v>
+        <v>77748</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>124069</v>
+        <v>121386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>184631</v>
+        <v>184643</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>262865</v>
+        <v>261054</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>176302</v>
+        <v>180190</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>296637</v>
+        <v>294425</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>393914</v>
+        <v>392717</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>587115</v>
+        <v>586844</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>128214</v>
+        <v>128544</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>212036</v>
+        <v>213009</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>248165</v>
+        <v>248775</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>370720</v>
+        <v>371256</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>115274</v>
+        <v>113540</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>170627</v>
+        <v>169306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>243235</v>
+        <v>242292</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>314418</v>
+        <v>314336</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>231716</v>
+        <v>233613</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>368529</v>
+        <v>366640</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>475658</v>
+        <v>474972</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>665894</v>
+        <v>668794</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31889</v>
+        <v>31435</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32690</v>
+        <v>33196</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38317</v>
+        <v>37626</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>102273</v>
+        <v>102265</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19402</v>
+        <v>19485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18573</v>
+        <v>20296</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19168</v>
+        <v>18784</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66824</v>
+        <v>65778</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>55050</v>
+        <v>55299</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>59086</v>
+        <v>58896</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>63343</v>
+        <v>64382</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>176145</v>
+        <v>178741</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>57788</v>
+        <v>58656</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60380</v>
+        <v>62534</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68304</v>
+        <v>67493</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>140648</v>
+        <v>139114</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39827</v>
+        <v>39120</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44288</v>
+        <v>45141</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>45168</v>
+        <v>44618</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>92697</v>
+        <v>92017</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>88652</v>
+        <v>87022</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>96334</v>
+        <v>96925</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>101412</v>
+        <v>101405</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>223327</v>
+        <v>226498</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>523702</v>
+        <v>517801</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>456927</v>
+        <v>459100</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>621532</v>
+        <v>616049</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>690178</v>
+        <v>694734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>575444</v>
+        <v>581396</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>726487</v>
+        <v>727666</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1241901</v>
+        <v>1244826</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1064407</v>
+        <v>1069020</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1364806</v>
+        <v>1371261</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>616086</v>
+        <v>610816</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>543422</v>
+        <v>546646</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>707121</v>
+        <v>708241</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>791198</v>
+        <v>794475</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>673386</v>
+        <v>674726</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>803043</v>
+        <v>803728</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1373985</v>
+        <v>1378039</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1194400</v>
+        <v>1191976</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1488244</v>
+        <v>1485103</v>
       </c>
     </row>
     <row r="20">
